--- a/equipment_robotics_IoT.xlsx
+++ b/equipment_robotics_IoT.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B92659-8E83-4428-8B63-BB2D39E9827A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223827DD-A401-420F-94FD-D1D5749B5FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18410" yWindow="3950" windowWidth="16130" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="4900" windowWidth="16130" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="Todo" sheetId="7" r:id="rId2"/>
-    <sheet name="tech" sheetId="3" r:id="rId3"/>
-    <sheet name="Acquisitions" sheetId="4" r:id="rId4"/>
-    <sheet name="Funds" sheetId="5" r:id="rId5"/>
-    <sheet name="Private" sheetId="10" r:id="rId6"/>
-    <sheet name="Industry Model" sheetId="6" r:id="rId7"/>
-    <sheet name="Launches" sheetId="8" r:id="rId8"/>
-    <sheet name="Foreign" sheetId="9" r:id="rId9"/>
+    <sheet name="Private" sheetId="10" r:id="rId2"/>
+    <sheet name="Todo" sheetId="7" r:id="rId3"/>
+    <sheet name="Foreign" sheetId="9" r:id="rId4"/>
+    <sheet name="tech" sheetId="3" r:id="rId5"/>
+    <sheet name="Acquisitions" sheetId="4" r:id="rId6"/>
+    <sheet name="Funds" sheetId="5" r:id="rId7"/>
+    <sheet name="Industry Model" sheetId="6" r:id="rId8"/>
+    <sheet name="Launches" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Industry GM%</t>
   </si>
   <si>
-    <t>Cargill</t>
-  </si>
-  <si>
     <t>Founder</t>
   </si>
   <si>
@@ -198,6 +195,30 @@
   </si>
   <si>
     <t>AGCO</t>
+  </si>
+  <si>
+    <t>Kubota</t>
+  </si>
+  <si>
+    <t>KUBTY (Tokyo)</t>
+  </si>
+  <si>
+    <t>read:</t>
+  </si>
+  <si>
+    <t>https://www.agweb.com/news/business/technology/ces-2025-5-farm-tech-companies-wowed-masses</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>Caterpillar</t>
+  </si>
+  <si>
+    <t>list out tech by category to get a feel for solutions on the market - compare and contrast</t>
+  </si>
+  <si>
+    <t>"tech" tab: list out tech by category to get a feel for solutions on the market - compare and contrast</t>
   </si>
 </sst>
 </file>
@@ -593,16 +614,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
@@ -613,43 +634,43 @@
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="P2" s="12">
         <v>2022</v>
@@ -688,42 +709,58 @@
         <v>2027</v>
       </c>
       <c r="AB2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
-        <v>54</v>
+      <c r="C8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -738,11 +775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6F614C-B05A-4C33-B11C-8055953FF26F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C171F-A23A-4863-B30F-3114D015B314}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,12 +789,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749F2C35-9865-4F8D-8103-03D80C17D00E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6F614C-B05A-4C33-B11C-8055953FF26F}">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{331F62FC-8C84-40D3-971C-EFCF3A08DCD3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CBACED-B0C2-4B17-8994-5B04EC45CA8D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -765,34 +831,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749F2C35-9865-4F8D-8103-03D80C17D00E}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F15742F-5B3A-4390-89DC-DA9B73633721}">
   <dimension ref="B2:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3CBBA5-3B76-4281-8597-EF26A835F24A}">
   <dimension ref="B2:F2"/>
   <sheetViews>
@@ -815,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -832,27 +918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C171F-A23A-4863-B30F-3114D015B314}">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A56F8B-F46B-4B4D-9FEB-D88B4FAC338E}">
   <dimension ref="B2:J26"/>
   <sheetViews>
@@ -1142,7 +1208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6ADCF5-6C62-45BD-8C7E-323F736BAA45}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1152,16 +1218,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CBACED-B0C2-4B17-8994-5B04EC45CA8D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/equipment_robotics_IoT.xlsx
+++ b/equipment_robotics_IoT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223827DD-A401-420F-94FD-D1D5749B5FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2A3B7B-394D-4D84-8575-B5875311D0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="4900" windowWidth="16130" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3370" yWindow="0" windowWidth="15920" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>"tech" tab: list out tech by category to get a feel for solutions on the market - compare and contrast</t>
+  </si>
+  <si>
+    <t>Deutz Ag / Deutz Fahr</t>
   </si>
 </sst>
 </file>
@@ -614,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,6 +764,11 @@
       </c>
       <c r="C8" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6F614C-B05A-4C33-B11C-8055953FF26F}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/equipment_robotics_IoT.xlsx
+++ b/equipment_robotics_IoT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2A3B7B-394D-4D84-8575-B5875311D0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136B3ED1-F58F-4CDC-8B21-172494AFE0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3370" yWindow="0" windowWidth="15920" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20330" yWindow="4290" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -222,6 +222,24 @@
   </si>
   <si>
     <t>Deutz Ag / Deutz Fahr</t>
+  </si>
+  <si>
+    <t>Steiger</t>
+  </si>
+  <si>
+    <t>Lindsay</t>
+  </si>
+  <si>
+    <t>Valmont</t>
+  </si>
+  <si>
+    <t>VMI</t>
+  </si>
+  <si>
+    <t>Planet Labs</t>
+  </si>
+  <si>
+    <t>PL</t>
   </si>
 </sst>
 </file>
@@ -617,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,6 +787,32 @@
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/equipment_robotics_IoT.xlsx
+++ b/equipment_robotics_IoT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136B3ED1-F58F-4CDC-8B21-172494AFE0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AA62E9-5464-40C5-B1B6-0E9D1A6B1AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20330" yWindow="4290" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="3470" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -240,6 +240,54 @@
   </si>
   <si>
     <t>PL</t>
+  </si>
+  <si>
+    <t>Monarch</t>
+  </si>
+  <si>
+    <t>Carbon Robotics</t>
+  </si>
+  <si>
+    <t>Advanced Farm</t>
+  </si>
+  <si>
+    <t>Bonsai</t>
+  </si>
+  <si>
+    <t>Plenty</t>
+  </si>
+  <si>
+    <t>App Harvest</t>
+  </si>
+  <si>
+    <t>Aigen</t>
+  </si>
+  <si>
+    <t>Agtonomy</t>
+  </si>
+  <si>
+    <t>Agrobot</t>
+  </si>
+  <si>
+    <t>Scythe</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>Blue River Technology</t>
+  </si>
+  <si>
+    <t>Electric Sheep</t>
+  </si>
+  <si>
+    <t>Yard</t>
+  </si>
+  <si>
+    <t>farm-ng</t>
+  </si>
+  <si>
+    <t>Verdant Robotics</t>
   </si>
 </sst>
 </file>
@@ -635,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,6 +861,86 @@
       </c>
       <c r="C13" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/equipment_robotics_IoT.xlsx
+++ b/equipment_robotics_IoT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AA62E9-5464-40C5-B1B6-0E9D1A6B1AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88C8E46-4BB4-4F1D-B407-70E0619443CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="3470" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19990" yWindow="3950" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,28 @@
     <sheet name="Industry Model" sheetId="6" r:id="rId8"/>
     <sheet name="Launches" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -288,6 +299,15 @@
   </si>
   <si>
     <t>Verdant Robotics</t>
+  </si>
+  <si>
+    <t>Alta Equipment Group</t>
+  </si>
+  <si>
+    <t>iPower</t>
+  </si>
+  <si>
+    <t>LNN</t>
   </si>
 </sst>
 </file>
@@ -686,7 +706,7 @@
   <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,8 +863,11 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
@@ -861,6 +884,16 @@
       </c>
       <c r="C13" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
@@ -949,6 +982,7 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{86FB504C-39A5-4A80-A6E7-F3E7533CEF7E}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{82B2A742-6F4F-44DD-BFC5-0185532A3598}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{B4215159-64B2-4ABA-9FF2-F7C235A01505}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{AC692F07-4809-47C7-AABF-025950B6208E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/equipment_robotics_IoT.xlsx
+++ b/equipment_robotics_IoT.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88C8E46-4BB4-4F1D-B407-70E0619443CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCCFACD-3CC0-4673-AE68-FC4D999FFC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19990" yWindow="3950" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="1610" windowWidth="12340" windowHeight="7110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="Private" sheetId="10" r:id="rId2"/>
-    <sheet name="Todo" sheetId="7" r:id="rId3"/>
-    <sheet name="Foreign" sheetId="9" r:id="rId4"/>
-    <sheet name="tech" sheetId="3" r:id="rId5"/>
-    <sheet name="Acquisitions" sheetId="4" r:id="rId6"/>
-    <sheet name="Funds" sheetId="5" r:id="rId7"/>
-    <sheet name="Industry Model" sheetId="6" r:id="rId8"/>
-    <sheet name="Launches" sheetId="8" r:id="rId9"/>
+    <sheet name="geography" sheetId="11" r:id="rId2"/>
+    <sheet name="Private" sheetId="10" r:id="rId3"/>
+    <sheet name="Todo" sheetId="7" r:id="rId4"/>
+    <sheet name="Foreign" sheetId="9" r:id="rId5"/>
+    <sheet name="tech" sheetId="3" r:id="rId6"/>
+    <sheet name="Acquisitions" sheetId="4" r:id="rId7"/>
+    <sheet name="Funds" sheetId="5" r:id="rId8"/>
+    <sheet name="Industry Model" sheetId="6" r:id="rId9"/>
+    <sheet name="Launches" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -308,6 +309,15 @@
   </si>
   <si>
     <t>LNN</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>https://www.agweb.com/news/machinery/new-machinery/factory-your-fields-where-farm-equipment-made</t>
+  </si>
+  <si>
+    <t>Buhler Industries Inc</t>
   </si>
 </sst>
 </file>
@@ -438,6 +448,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>267570</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>125581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6BE983-A4E8-4CE7-8E5D-7117B64B276E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622300" y="431800"/>
+          <a:ext cx="11227670" cy="6875631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -705,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,62 +945,70 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>78</v>
       </c>
@@ -988,7 +1055,49 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6ADCF5-6C62-45BD-8C7E-323F736BAA45}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547DBCDB-32A8-44CA-9D95-30244AD91ACC}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{9F6A7E60-561B-4A1E-B0FD-409557003EA3}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{682011BE-7E31-4B18-9A8D-979CF5CA990E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C171F-A23A-4863-B30F-3114D015B314}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1002,12 +1111,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6F614C-B05A-4C33-B11C-8055953FF26F}">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,7 +1142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CBACED-B0C2-4B17-8994-5B04EC45CA8D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1045,7 +1154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749F2C35-9865-4F8D-8103-03D80C17D00E}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -1065,7 +1174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F15742F-5B3A-4390-89DC-DA9B73633721}">
   <dimension ref="B2:G2"/>
   <sheetViews>
@@ -1100,7 +1209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3CBBA5-3B76-4281-8597-EF26A835F24A}">
   <dimension ref="B2:F2"/>
   <sheetViews>
@@ -1132,7 +1241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A56F8B-F46B-4B4D-9FEB-D88B4FAC338E}">
   <dimension ref="B2:J26"/>
   <sheetViews>
@@ -1420,16 +1529,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6ADCF5-6C62-45BD-8C7E-323F736BAA45}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>